--- a/testing_results/results_tai15x15.xlsx
+++ b/testing_results/results_tai15x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1252439663815465</v>
+        <v>0.1027442400713823</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1174428337462489</v>
+        <v>0.1368871160237854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1157814413507144</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1227101462265515</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1148175118906397</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1223659740938091</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.119890293061334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1324376699364115</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1275918149848912</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1338455980915608</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1255921284680291</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.129914265805252</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1368871160237854</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.0750603785751903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1180107451352771</v>
+        <v>0.08480981904061582</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111162361752827</v>
+        <v>0.1239270127592192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1125339057682505</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1099709617954096</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1035304878044416</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1054304889639687</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1122699495560334</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1264935583517033</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1128930051985804</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1228110992258043</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1164507837372099</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1240714725009784</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1239270127592192</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.06291875765281424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1077693953487675</v>
+        <v>0.07984733266156538</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1065679604591073</v>
+        <v>0.1050443467852758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0963443516236849</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1010588751908617</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1044821008351194</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09495735435970246</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1007584454367368</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.115492504475956</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1064820700637629</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1123036551788549</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1060877392604242</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1125819964351039</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1050443467852758</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.05332632172813245</v>
+        <v>0.05156488970298578</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06667956463825567</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09199165651431844</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0477382990317679</v>
       </c>
     </row>
   </sheetData>
